--- a/data/pca/factorExposure/factorExposure_2015-06-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01833273654089732</v>
+        <v>0.006685314237430226</v>
       </c>
       <c r="C2">
-        <v>-0.01991714293127428</v>
+        <v>0.04826962121163146</v>
       </c>
       <c r="D2">
-        <v>0.1079194688292816</v>
+        <v>0.1312040604679927</v>
       </c>
       <c r="E2">
-        <v>-0.005639585601316596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02988138431469126</v>
+      </c>
+      <c r="F2">
+        <v>0.02954136544387588</v>
+      </c>
+      <c r="G2">
+        <v>-0.1280930276062844</v>
+      </c>
+      <c r="H2">
+        <v>-0.0285306750401894</v>
+      </c>
+      <c r="I2">
+        <v>-0.01493656446297452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.006231820261589235</v>
+        <v>-0.005325834303669835</v>
       </c>
       <c r="C3">
-        <v>-0.005543796117619271</v>
+        <v>-6.696280872739563e-05</v>
       </c>
       <c r="D3">
-        <v>-0.005381036950851857</v>
+        <v>0.0008338376681847046</v>
       </c>
       <c r="E3">
-        <v>-0.000886409623505201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.00505878878318626</v>
+      </c>
+      <c r="F3">
+        <v>0.0003024051146061782</v>
+      </c>
+      <c r="G3">
+        <v>-0.0003975721566145994</v>
+      </c>
+      <c r="H3">
+        <v>0.01352295158801646</v>
+      </c>
+      <c r="I3">
+        <v>0.005932050034522798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04676880953573315</v>
+        <v>0.01675674017188457</v>
       </c>
       <c r="C4">
-        <v>-0.06937730628332761</v>
+        <v>0.1008849065927499</v>
       </c>
       <c r="D4">
-        <v>0.1342941145434461</v>
+        <v>0.1357052464921</v>
       </c>
       <c r="E4">
-        <v>-0.08032346250805882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01408924416494912</v>
+      </c>
+      <c r="F4">
+        <v>0.09351912848497211</v>
+      </c>
+      <c r="G4">
+        <v>-0.0115460218096177</v>
+      </c>
+      <c r="H4">
+        <v>-0.05063430693156472</v>
+      </c>
+      <c r="I4">
+        <v>0.05880159194984652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02313786987812631</v>
+        <v>0.02547013850632779</v>
       </c>
       <c r="C6">
-        <v>-0.01194915444558569</v>
+        <v>0.03170178070501926</v>
       </c>
       <c r="D6">
-        <v>0.1375955837360081</v>
+        <v>0.121863635075731</v>
       </c>
       <c r="E6">
-        <v>-0.0343832104432429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06294124481765066</v>
+      </c>
+      <c r="F6">
+        <v>0.04777418600103636</v>
+      </c>
+      <c r="G6">
+        <v>-0.007583520113232688</v>
+      </c>
+      <c r="H6">
+        <v>-0.05686219136691956</v>
+      </c>
+      <c r="I6">
+        <v>-0.001321751893699671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.005681310064134514</v>
+        <v>0.006955591996843411</v>
       </c>
       <c r="C7">
-        <v>-0.02159906780243956</v>
+        <v>0.0328920616529866</v>
       </c>
       <c r="D7">
-        <v>0.1110696361118061</v>
+        <v>0.09546811840062873</v>
       </c>
       <c r="E7">
-        <v>-0.001792741990164524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.06075647271572701</v>
+      </c>
+      <c r="F7">
+        <v>0.007739919253374806</v>
+      </c>
+      <c r="G7">
+        <v>-0.003706117099247298</v>
+      </c>
+      <c r="H7">
+        <v>-0.07579189511154198</v>
+      </c>
+      <c r="I7">
+        <v>-0.00764264821070718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.003792209967320382</v>
+        <v>-0.01251697568146789</v>
       </c>
       <c r="C8">
-        <v>-0.025446435305757</v>
+        <v>0.03024411813288105</v>
       </c>
       <c r="D8">
-        <v>0.08038145508481803</v>
+        <v>0.07275829790501474</v>
       </c>
       <c r="E8">
-        <v>-0.02501207310397249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04064493995645779</v>
+      </c>
+      <c r="F8">
+        <v>0.05135633052137183</v>
+      </c>
+      <c r="G8">
+        <v>-0.0618233215453057</v>
+      </c>
+      <c r="H8">
+        <v>0.005031606218162633</v>
+      </c>
+      <c r="I8">
+        <v>-0.02508455888830488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03908637719773046</v>
+        <v>0.0119311059943223</v>
       </c>
       <c r="C9">
-        <v>-0.059357849203243</v>
+        <v>0.08423764958767442</v>
       </c>
       <c r="D9">
-        <v>0.1333339137718317</v>
+        <v>0.1180170239793134</v>
       </c>
       <c r="E9">
-        <v>-0.06326721637568281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01644722624659236</v>
+      </c>
+      <c r="F9">
+        <v>0.06179024757595609</v>
+      </c>
+      <c r="G9">
+        <v>0.004365322660205253</v>
+      </c>
+      <c r="H9">
+        <v>-0.06869236125202584</v>
+      </c>
+      <c r="I9">
+        <v>0.02231826117078328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1570252831010637</v>
+        <v>0.2366627738817111</v>
       </c>
       <c r="C10">
-        <v>0.1778330845594466</v>
+        <v>-0.09560217826636142</v>
       </c>
       <c r="D10">
-        <v>0.008792014709852121</v>
+        <v>-0.006182666136189319</v>
       </c>
       <c r="E10">
-        <v>-0.04681094772762151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01307497924562137</v>
+      </c>
+      <c r="F10">
+        <v>0.04913209607834615</v>
+      </c>
+      <c r="G10">
+        <v>-0.004265346023974979</v>
+      </c>
+      <c r="H10">
+        <v>0.05611974826972332</v>
+      </c>
+      <c r="I10">
+        <v>-0.1045119810785418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02118293195750824</v>
+        <v>0.008206812073573684</v>
       </c>
       <c r="C11">
-        <v>-0.03906518517707385</v>
+        <v>0.05148821670530026</v>
       </c>
       <c r="D11">
-        <v>0.04959370249828268</v>
+        <v>0.04155813333032846</v>
       </c>
       <c r="E11">
-        <v>0.0164651576695387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02248819587493155</v>
+      </c>
+      <c r="F11">
+        <v>-0.01214912502110379</v>
+      </c>
+      <c r="G11">
+        <v>-0.002793999150020954</v>
+      </c>
+      <c r="H11">
+        <v>-0.04668512241645434</v>
+      </c>
+      <c r="I11">
+        <v>0.05280568087431117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02217108022105648</v>
+        <v>0.008067324579188156</v>
       </c>
       <c r="C12">
-        <v>-0.03916559495603202</v>
+        <v>0.04843160292464008</v>
       </c>
       <c r="D12">
-        <v>0.06255936614053666</v>
+        <v>0.04800477730941542</v>
       </c>
       <c r="E12">
-        <v>0.006783396218669279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01873065234854264</v>
+      </c>
+      <c r="F12">
+        <v>-0.01759996692303941</v>
+      </c>
+      <c r="G12">
+        <v>0.01301839146341259</v>
+      </c>
+      <c r="H12">
+        <v>-0.07320079702502333</v>
+      </c>
+      <c r="I12">
+        <v>0.03217229338828287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005846058512529069</v>
+        <v>-0.005588026656767479</v>
       </c>
       <c r="C13">
-        <v>-0.02266078298676482</v>
+        <v>0.04182716703132973</v>
       </c>
       <c r="D13">
-        <v>0.1476820295282044</v>
+        <v>0.146096381503034</v>
       </c>
       <c r="E13">
-        <v>-0.03191010786980368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04585864422567507</v>
+      </c>
+      <c r="F13">
+        <v>0.03328395354769806</v>
+      </c>
+      <c r="G13">
+        <v>-0.03233370573360472</v>
+      </c>
+      <c r="H13">
+        <v>-0.05992189672106364</v>
+      </c>
+      <c r="I13">
+        <v>-0.1000410405864639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003231271761055716</v>
+        <v>-0.0008376312215002885</v>
       </c>
       <c r="C14">
-        <v>-0.01714636583088111</v>
+        <v>0.02592369586658082</v>
       </c>
       <c r="D14">
-        <v>0.09938409816904514</v>
+        <v>0.09889596587939643</v>
       </c>
       <c r="E14">
-        <v>-0.00978072945618402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05114188150571412</v>
+      </c>
+      <c r="F14">
+        <v>0.03550459504195029</v>
+      </c>
+      <c r="G14">
+        <v>-0.03952034191674123</v>
+      </c>
+      <c r="H14">
+        <v>-0.1240982567371436</v>
+      </c>
+      <c r="I14">
+        <v>-0.01365786943366207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001572326579355672</v>
+        <v>-0.001977187694902712</v>
       </c>
       <c r="C15">
-        <v>-0.01047989670804947</v>
+        <v>0.02003685839124184</v>
       </c>
       <c r="D15">
-        <v>0.02751336217675288</v>
+        <v>0.05393466407375479</v>
       </c>
       <c r="E15">
-        <v>0.00318029807770295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01212581817856155</v>
+      </c>
+      <c r="F15">
+        <v>0.0071151543001132</v>
+      </c>
+      <c r="G15">
+        <v>-0.02690010088246772</v>
+      </c>
+      <c r="H15">
+        <v>-0.02334980369584133</v>
+      </c>
+      <c r="I15">
+        <v>0.02110796657392431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02126369929152755</v>
+        <v>0.008824158758343303</v>
       </c>
       <c r="C16">
-        <v>-0.0369952439434891</v>
+        <v>0.04765411496949468</v>
       </c>
       <c r="D16">
-        <v>0.05617473119998928</v>
+        <v>0.04297379671098969</v>
       </c>
       <c r="E16">
-        <v>0.009601174836224151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02395438675178648</v>
+      </c>
+      <c r="F16">
+        <v>-0.00953046154397471</v>
+      </c>
+      <c r="G16">
+        <v>0.008909837106408202</v>
+      </c>
+      <c r="H16">
+        <v>-0.05380359549947509</v>
+      </c>
+      <c r="I16">
+        <v>0.04935375427912999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.006050327331828088</v>
+        <v>0.0001051417959479669</v>
       </c>
       <c r="C19">
-        <v>-0.01931353210935566</v>
+        <v>0.01840949369783382</v>
       </c>
       <c r="D19">
-        <v>0.1066513482460069</v>
+        <v>0.06839359706141607</v>
       </c>
       <c r="E19">
-        <v>-0.03993832749038611</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.00854249374519065</v>
+      </c>
+      <c r="F19">
+        <v>0.01439902928391601</v>
+      </c>
+      <c r="G19">
+        <v>-0.02293649230076831</v>
+      </c>
+      <c r="H19">
+        <v>-0.06203020876987779</v>
+      </c>
+      <c r="I19">
+        <v>-0.04687437803622699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.004516346395071431</v>
+        <v>0.003629069215707761</v>
       </c>
       <c r="C20">
-        <v>-0.02382610058781272</v>
+        <v>0.03679883520513417</v>
       </c>
       <c r="D20">
-        <v>0.08896216287150605</v>
+        <v>0.09286730688292087</v>
       </c>
       <c r="E20">
-        <v>-0.03363809769882015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02538215608563808</v>
+      </c>
+      <c r="F20">
+        <v>0.03043314275815417</v>
+      </c>
+      <c r="G20">
+        <v>-0.006286623536917213</v>
+      </c>
+      <c r="H20">
+        <v>-0.05991058470458997</v>
+      </c>
+      <c r="I20">
+        <v>0.01991596664133777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.00855139105264118</v>
+        <v>0.001894782315394711</v>
       </c>
       <c r="C21">
-        <v>-0.02894441459841148</v>
+        <v>0.03935526259766613</v>
       </c>
       <c r="D21">
-        <v>0.166211667138722</v>
+        <v>0.1277078436805228</v>
       </c>
       <c r="E21">
-        <v>-0.07144038702196776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0349812999182274</v>
+      </c>
+      <c r="F21">
+        <v>0.09330338510760508</v>
+      </c>
+      <c r="G21">
+        <v>-0.05462785643197191</v>
+      </c>
+      <c r="H21">
+        <v>-0.1903556739451143</v>
+      </c>
+      <c r="I21">
+        <v>-0.1571694563567496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001564722428631698</v>
+        <v>-0.01308266978731768</v>
       </c>
       <c r="C22">
-        <v>-0.06107056462404394</v>
+        <v>0.08190216056423662</v>
       </c>
       <c r="D22">
-        <v>0.238204260006681</v>
+        <v>0.2701989203793079</v>
       </c>
       <c r="E22">
-        <v>0.02262737057517057</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06546483496718156</v>
+      </c>
+      <c r="F22">
+        <v>0.02916526762186143</v>
+      </c>
+      <c r="G22">
+        <v>-0.2626024895909004</v>
+      </c>
+      <c r="H22">
+        <v>0.4509534042352749</v>
+      </c>
+      <c r="I22">
+        <v>0.1169234754489297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001831407015356197</v>
+        <v>-0.01271843500514108</v>
       </c>
       <c r="C23">
-        <v>-0.06155585174523417</v>
+        <v>0.08294004532369077</v>
       </c>
       <c r="D23">
-        <v>0.2377756747812192</v>
+        <v>0.2711127148713571</v>
       </c>
       <c r="E23">
-        <v>0.02246516475541949</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0623872726364926</v>
+      </c>
+      <c r="F23">
+        <v>0.02929334005443456</v>
+      </c>
+      <c r="G23">
+        <v>-0.2625032451076312</v>
+      </c>
+      <c r="H23">
+        <v>0.4506161210195764</v>
+      </c>
+      <c r="I23">
+        <v>0.1176045371048699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02784392045584463</v>
+        <v>0.008353579276817876</v>
       </c>
       <c r="C24">
-        <v>-0.05529688034989408</v>
+        <v>0.0642345509150474</v>
       </c>
       <c r="D24">
-        <v>0.06886877834309098</v>
+        <v>0.04989772245515253</v>
       </c>
       <c r="E24">
-        <v>0.005317623941451607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.03240524526506396</v>
+      </c>
+      <c r="F24">
+        <v>-0.005295772081925422</v>
+      </c>
+      <c r="G24">
+        <v>-0.004844943637084383</v>
+      </c>
+      <c r="H24">
+        <v>-0.07672802478735041</v>
+      </c>
+      <c r="I24">
+        <v>0.04382014657485632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02901496004459756</v>
+        <v>0.01189481930868369</v>
       </c>
       <c r="C25">
-        <v>-0.04619202850318558</v>
+        <v>0.05915358147287154</v>
       </c>
       <c r="D25">
-        <v>0.06069898401383689</v>
+        <v>0.04913584896932019</v>
       </c>
       <c r="E25">
-        <v>0.001479908826406546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01637829984475304</v>
+      </c>
+      <c r="F25">
+        <v>-0.006990471083814449</v>
+      </c>
+      <c r="G25">
+        <v>0.005818456673284979</v>
+      </c>
+      <c r="H25">
+        <v>-0.04488409347061045</v>
+      </c>
+      <c r="I25">
+        <v>0.03216745234298158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008803658270996629</v>
+        <v>0.005967375554328977</v>
       </c>
       <c r="C26">
-        <v>-0.01327184498948116</v>
+        <v>0.02432625386044935</v>
       </c>
       <c r="D26">
-        <v>0.08020300089177908</v>
+        <v>0.06328809222770289</v>
       </c>
       <c r="E26">
-        <v>-0.01925917730437597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.0435435628118214</v>
+      </c>
+      <c r="F26">
+        <v>0.03124166449857082</v>
+      </c>
+      <c r="G26">
+        <v>-0.01477094918644522</v>
+      </c>
+      <c r="H26">
+        <v>-0.0893308901038696</v>
+      </c>
+      <c r="I26">
+        <v>-0.03621256548721609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2423496297666182</v>
+        <v>0.3213744322283357</v>
       </c>
       <c r="C28">
-        <v>0.217950207867855</v>
+        <v>-0.09273837452040221</v>
       </c>
       <c r="D28">
-        <v>0.01772919130713172</v>
+        <v>-0.004930051685755842</v>
       </c>
       <c r="E28">
-        <v>-0.06505403098749127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04850615615178829</v>
+      </c>
+      <c r="F28">
+        <v>0.05093033492875419</v>
+      </c>
+      <c r="G28">
+        <v>-0.03958422578999746</v>
+      </c>
+      <c r="H28">
+        <v>0.01219127652770807</v>
+      </c>
+      <c r="I28">
+        <v>-0.1450619580645504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.00048291600529996</v>
+        <v>-0.002700851611449053</v>
       </c>
       <c r="C29">
-        <v>-0.0208067207273783</v>
+        <v>0.02910840460089403</v>
       </c>
       <c r="D29">
-        <v>0.09681895573942285</v>
+        <v>0.0947096032833751</v>
       </c>
       <c r="E29">
-        <v>-0.01442389093869127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05649814665317787</v>
+      </c>
+      <c r="F29">
+        <v>0.03871820253501868</v>
+      </c>
+      <c r="G29">
+        <v>-0.02686727588058278</v>
+      </c>
+      <c r="H29">
+        <v>-0.1291094819143665</v>
+      </c>
+      <c r="I29">
+        <v>-0.01102775066136961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02562820677078359</v>
+        <v>0.01362178273971724</v>
       </c>
       <c r="C30">
-        <v>-0.05703845347779764</v>
+        <v>0.08323010065589337</v>
       </c>
       <c r="D30">
-        <v>0.1666278966709771</v>
+        <v>0.1565164125556212</v>
       </c>
       <c r="E30">
-        <v>-0.02139549552477185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.06295422110130522</v>
+      </c>
+      <c r="F30">
+        <v>0.03799542894292918</v>
+      </c>
+      <c r="G30">
+        <v>-0.03629281651327963</v>
+      </c>
+      <c r="H30">
+        <v>-0.05569321148688569</v>
+      </c>
+      <c r="I30">
+        <v>0.07382157829931463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04467858116509112</v>
+        <v>0.007611401969836856</v>
       </c>
       <c r="C31">
-        <v>-0.08253113807046036</v>
+        <v>0.09207633677211829</v>
       </c>
       <c r="D31">
-        <v>0.06921479965026163</v>
+        <v>0.03898083511805185</v>
       </c>
       <c r="E31">
-        <v>-0.01214716716182159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01951107100829102</v>
+      </c>
+      <c r="F31">
+        <v>0.01653669293745141</v>
+      </c>
+      <c r="G31">
+        <v>-0.01538912514443021</v>
+      </c>
+      <c r="H31">
+        <v>-0.04694212041334093</v>
+      </c>
+      <c r="I31">
+        <v>-0.05712289366624367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02167105885989776</v>
+        <v>0.009856308029023703</v>
       </c>
       <c r="C32">
-        <v>-0.03110873094218978</v>
+        <v>0.04508645146691471</v>
       </c>
       <c r="D32">
-        <v>0.1036186796056215</v>
+        <v>0.1081552157302411</v>
       </c>
       <c r="E32">
-        <v>-0.06606398598342102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0129510082201925</v>
+      </c>
+      <c r="F32">
+        <v>0.04966229951105425</v>
+      </c>
+      <c r="G32">
+        <v>-0.02658679704075608</v>
+      </c>
+      <c r="H32">
+        <v>-0.03692168287529955</v>
+      </c>
+      <c r="I32">
+        <v>-0.07871449870699115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01404987823618593</v>
+        <v>0.005408142147744459</v>
       </c>
       <c r="C33">
-        <v>-0.03977512383119865</v>
+        <v>0.05532199685536879</v>
       </c>
       <c r="D33">
-        <v>0.139601583242797</v>
+        <v>0.1205026549848148</v>
       </c>
       <c r="E33">
-        <v>-0.03716623964794557</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03340637514073949</v>
+      </c>
+      <c r="F33">
+        <v>0.02786789516348777</v>
+      </c>
+      <c r="G33">
+        <v>-0.01349856422063207</v>
+      </c>
+      <c r="H33">
+        <v>-0.06577139177903092</v>
+      </c>
+      <c r="I33">
+        <v>-0.00906318169158493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02511635350437923</v>
+        <v>0.005791576869736585</v>
       </c>
       <c r="C34">
-        <v>-0.05761692516089958</v>
+        <v>0.060845730116249</v>
       </c>
       <c r="D34">
-        <v>0.05157609888583569</v>
+        <v>0.02923304740006805</v>
       </c>
       <c r="E34">
-        <v>0.04712943081745222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02985723227943054</v>
+      </c>
+      <c r="F34">
+        <v>-0.037859311520888</v>
+      </c>
+      <c r="G34">
+        <v>-0.00187984379176207</v>
+      </c>
+      <c r="H34">
+        <v>-0.06053716159337499</v>
+      </c>
+      <c r="I34">
+        <v>0.01962598688786767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001708591018684361</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.006878825272643195</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.0277272424491944</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004622826636827223</v>
+      </c>
+      <c r="F35">
+        <v>0.01689934843892514</v>
+      </c>
+      <c r="G35">
+        <v>-0.015120360305003</v>
+      </c>
+      <c r="H35">
+        <v>-0.0364991635099092</v>
+      </c>
+      <c r="I35">
+        <v>0.02050427998351249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.008518929534185765</v>
+        <v>0.007467315594632058</v>
       </c>
       <c r="C36">
-        <v>-0.004861057853280713</v>
+        <v>0.01789673552476743</v>
       </c>
       <c r="D36">
-        <v>0.08702846597532844</v>
+        <v>0.07073746910323558</v>
       </c>
       <c r="E36">
-        <v>-0.04179382184148787</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02820368862017439</v>
+      </c>
+      <c r="F36">
+        <v>0.04316269740362629</v>
+      </c>
+      <c r="G36">
+        <v>-0.01389785248988362</v>
+      </c>
+      <c r="H36">
+        <v>-0.06271693406471288</v>
+      </c>
+      <c r="I36">
+        <v>-0.02646821061850221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005848078267174662</v>
+        <v>0.01210452702897392</v>
       </c>
       <c r="C38">
-        <v>-0.005952084489989195</v>
+        <v>0.01550496740349875</v>
       </c>
       <c r="D38">
-        <v>0.08495654123496307</v>
+        <v>0.08322086872224466</v>
       </c>
       <c r="E38">
-        <v>-0.009861233119485413</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004874702755160253</v>
+      </c>
+      <c r="F38">
+        <v>0.004226118786232088</v>
+      </c>
+      <c r="G38">
+        <v>-0.03857923288967111</v>
+      </c>
+      <c r="H38">
+        <v>-0.05865624590199336</v>
+      </c>
+      <c r="I38">
+        <v>-0.03074650745540054</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01954772446943852</v>
+        <v>0.003552278293056258</v>
       </c>
       <c r="C39">
-        <v>-0.05546811708735269</v>
+        <v>0.07304458088280807</v>
       </c>
       <c r="D39">
-        <v>0.1142313596638202</v>
+        <v>0.09782222239848953</v>
       </c>
       <c r="E39">
-        <v>0.01931222420614176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06067492182583341</v>
+      </c>
+      <c r="F39">
+        <v>-0.003034238388789849</v>
+      </c>
+      <c r="G39">
+        <v>-0.006914485137144331</v>
+      </c>
+      <c r="H39">
+        <v>-0.1051212187639555</v>
+      </c>
+      <c r="I39">
+        <v>0.07399970866654626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01152052793592172</v>
+        <v>0.008997866079932297</v>
       </c>
       <c r="C40">
-        <v>-0.01534055850062003</v>
+        <v>0.02455699178002784</v>
       </c>
       <c r="D40">
-        <v>0.1190531857215252</v>
+        <v>0.09296471493135473</v>
       </c>
       <c r="E40">
-        <v>0.02015025619959654</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04967225331733666</v>
+      </c>
+      <c r="F40">
+        <v>-0.02099248318695915</v>
+      </c>
+      <c r="G40">
+        <v>-0.07104561349174532</v>
+      </c>
+      <c r="H40">
+        <v>-0.06195364336388943</v>
+      </c>
+      <c r="I40">
+        <v>-0.07028493214762241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0118897378691685</v>
+        <v>0.01335786107774879</v>
       </c>
       <c r="C41">
-        <v>-0.004829565144154434</v>
+        <v>0.01471392407803766</v>
       </c>
       <c r="D41">
-        <v>0.04976056606623551</v>
+        <v>0.03965252049653178</v>
       </c>
       <c r="E41">
-        <v>-0.03114337110421693</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.006760734141261714</v>
+      </c>
+      <c r="F41">
+        <v>0.0242233518801256</v>
+      </c>
+      <c r="G41">
+        <v>-0.02232528186980841</v>
+      </c>
+      <c r="H41">
+        <v>-0.03949914766569951</v>
+      </c>
+      <c r="I41">
+        <v>-0.03313683909714782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005484010288317025</v>
+        <v>0.007239229766929968</v>
       </c>
       <c r="C43">
-        <v>-0.005541656080193423</v>
+        <v>0.01279430353086628</v>
       </c>
       <c r="D43">
-        <v>0.05986721905073441</v>
+        <v>0.04702002526009086</v>
       </c>
       <c r="E43">
-        <v>-0.02006721176953062</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.009581081922945009</v>
+      </c>
+      <c r="F43">
+        <v>0.0192985646629788</v>
+      </c>
+      <c r="G43">
+        <v>-0.02263258036146219</v>
+      </c>
+      <c r="H43">
+        <v>-0.05542594989667672</v>
+      </c>
+      <c r="I43">
+        <v>-0.01670445190814438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01677480335462381</v>
+        <v>0.01039825126492866</v>
       </c>
       <c r="C44">
-        <v>-0.0240849497065446</v>
+        <v>0.04259313792285446</v>
       </c>
       <c r="D44">
-        <v>0.1119762422785639</v>
+        <v>0.1111256082512497</v>
       </c>
       <c r="E44">
-        <v>-0.04434364419083094</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.04397836696555832</v>
+      </c>
+      <c r="F44">
+        <v>0.03631424160259812</v>
+      </c>
+      <c r="G44">
+        <v>-0.03389668481251266</v>
+      </c>
+      <c r="H44">
+        <v>-0.04825029265145422</v>
+      </c>
+      <c r="I44">
+        <v>0.05943206654975511</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007980268770194974</v>
+        <v>-0.001206427476491699</v>
       </c>
       <c r="C46">
-        <v>-0.02693047324564038</v>
+        <v>0.03779180010567124</v>
       </c>
       <c r="D46">
-        <v>0.0903530149167602</v>
+        <v>0.07881903783976661</v>
       </c>
       <c r="E46">
-        <v>-0.0185038797599015</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04426270866233807</v>
+      </c>
+      <c r="F46">
+        <v>0.03397921305402107</v>
+      </c>
+      <c r="G46">
+        <v>-0.03572515658583436</v>
+      </c>
+      <c r="H46">
+        <v>-0.1322873679171209</v>
+      </c>
+      <c r="I46">
+        <v>-0.002148354896535861</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08768251079560349</v>
+        <v>0.03216378989825438</v>
       </c>
       <c r="C47">
-        <v>-0.1018573936643088</v>
+        <v>0.1252191967409505</v>
       </c>
       <c r="D47">
-        <v>0.05894758044615642</v>
+        <v>0.02345017998804536</v>
       </c>
       <c r="E47">
-        <v>-0.02781059325261197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0111995401651399</v>
+      </c>
+      <c r="F47">
+        <v>-0.003805375770783931</v>
+      </c>
+      <c r="G47">
+        <v>0.02491934697466908</v>
+      </c>
+      <c r="H47">
+        <v>-0.05951557815641603</v>
+      </c>
+      <c r="I47">
+        <v>-0.1256948855462389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008915939207896413</v>
+        <v>0.005705067539702065</v>
       </c>
       <c r="C48">
-        <v>-0.01485572345155062</v>
+        <v>0.02802971269500505</v>
       </c>
       <c r="D48">
-        <v>0.09335223093185666</v>
+        <v>0.07492314753648487</v>
       </c>
       <c r="E48">
-        <v>-0.05424182793841773</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02190548645701985</v>
+      </c>
+      <c r="F48">
+        <v>0.05142385903998182</v>
+      </c>
+      <c r="G48">
+        <v>-0.02752194477112027</v>
+      </c>
+      <c r="H48">
+        <v>-0.09666829881903015</v>
+      </c>
+      <c r="I48">
+        <v>-0.0069743951393285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04263371078505011</v>
+        <v>0.01233526906094081</v>
       </c>
       <c r="C50">
-        <v>-0.05843297384175199</v>
+        <v>0.07405184603247905</v>
       </c>
       <c r="D50">
-        <v>0.0684798757013349</v>
+        <v>0.04475090327322853</v>
       </c>
       <c r="E50">
-        <v>-0.008302403098953009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01221057097239264</v>
+      </c>
+      <c r="F50">
+        <v>0.01041138516422978</v>
+      </c>
+      <c r="G50">
+        <v>-0.02866849535725063</v>
+      </c>
+      <c r="H50">
+        <v>-0.03046929384755135</v>
+      </c>
+      <c r="I50">
+        <v>-0.09767293748969251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001331765267557401</v>
+        <v>-0.0001619983667914504</v>
       </c>
       <c r="C51">
-        <v>-0.003218797184034738</v>
+        <v>0.01450708376954065</v>
       </c>
       <c r="D51">
-        <v>0.05588198527383099</v>
+        <v>0.05764734556664729</v>
       </c>
       <c r="E51">
-        <v>-0.001424578420227779</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.04692278965933978</v>
+      </c>
+      <c r="F51">
+        <v>0.03582343543816317</v>
+      </c>
+      <c r="G51">
+        <v>-0.03090816896727545</v>
+      </c>
+      <c r="H51">
+        <v>-0.03315435074258288</v>
+      </c>
+      <c r="I51">
+        <v>-0.008180239633307405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1145491240803159</v>
+        <v>0.05570435817770641</v>
       </c>
       <c r="C53">
-        <v>-0.1175857650312592</v>
+        <v>0.1574312743184114</v>
       </c>
       <c r="D53">
-        <v>0.01984863041972124</v>
+        <v>-0.01136942843549519</v>
       </c>
       <c r="E53">
-        <v>-0.05891389389723517</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02679796505113576</v>
+      </c>
+      <c r="F53">
+        <v>0.05051536198293687</v>
+      </c>
+      <c r="G53">
+        <v>-0.002451185556624555</v>
+      </c>
+      <c r="H53">
+        <v>-0.002447202749607497</v>
+      </c>
+      <c r="I53">
+        <v>-0.06424009525277576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0155806344252473</v>
+        <v>0.009454044070200535</v>
       </c>
       <c r="C54">
-        <v>-0.02109563308953759</v>
+        <v>0.03799518152681251</v>
       </c>
       <c r="D54">
-        <v>0.09841400295651245</v>
+        <v>0.08200708160825745</v>
       </c>
       <c r="E54">
-        <v>-0.0006150307427633195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01951041763252899</v>
+      </c>
+      <c r="F54">
+        <v>0.001679247274947986</v>
+      </c>
+      <c r="G54">
+        <v>-0.03851527271973505</v>
+      </c>
+      <c r="H54">
+        <v>-0.08357622368959076</v>
+      </c>
+      <c r="I54">
+        <v>-0.02384628832229639</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1012723661670824</v>
+        <v>0.04193286514129169</v>
       </c>
       <c r="C55">
-        <v>-0.0992975049576189</v>
+        <v>0.130154545602409</v>
       </c>
       <c r="D55">
-        <v>0.008608421549208772</v>
+        <v>-0.02806730710194895</v>
       </c>
       <c r="E55">
-        <v>-0.01273936881851924</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003936216038591189</v>
+      </c>
+      <c r="F55">
+        <v>0.01436078191975616</v>
+      </c>
+      <c r="G55">
+        <v>-0.01376354831112921</v>
+      </c>
+      <c r="H55">
+        <v>-0.00379801459904651</v>
+      </c>
+      <c r="I55">
+        <v>-0.07289737452018756</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1404973074658674</v>
+        <v>0.05851162539869126</v>
       </c>
       <c r="C56">
-        <v>-0.1333023653464099</v>
+        <v>0.1892394000884988</v>
       </c>
       <c r="D56">
-        <v>0.003919376103748752</v>
+        <v>-0.02308614135703146</v>
       </c>
       <c r="E56">
-        <v>-0.01240462975789703</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02929840034954288</v>
+      </c>
+      <c r="F56">
+        <v>0.01867960095484622</v>
+      </c>
+      <c r="G56">
+        <v>-0.05858185206266903</v>
+      </c>
+      <c r="H56">
+        <v>0.01331856075188076</v>
+      </c>
+      <c r="I56">
+        <v>-0.09300520270689872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.004679951366551931</v>
+        <v>0.002181008082713544</v>
       </c>
       <c r="C58">
-        <v>-0.01046052044904197</v>
+        <v>0.04776017788658449</v>
       </c>
       <c r="D58">
-        <v>0.2145497925330028</v>
+        <v>0.2798042727462752</v>
       </c>
       <c r="E58">
-        <v>-0.08033858881164772</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02377155282453096</v>
+      </c>
+      <c r="F58">
+        <v>0.1098664765399351</v>
+      </c>
+      <c r="G58">
+        <v>-0.10512783498388</v>
+      </c>
+      <c r="H58">
+        <v>0.1133309807590071</v>
+      </c>
+      <c r="I58">
+        <v>0.08157020156949721</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1686210293094149</v>
+        <v>0.2492412753893606</v>
       </c>
       <c r="C59">
-        <v>0.1574965671402125</v>
+        <v>-0.06462127842621274</v>
       </c>
       <c r="D59">
-        <v>0.04522863080549052</v>
+        <v>0.0595205941541057</v>
       </c>
       <c r="E59">
-        <v>-0.03540405194311833</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02122786640775127</v>
+      </c>
+      <c r="F59">
+        <v>0.02288793414182103</v>
+      </c>
+      <c r="G59">
+        <v>-0.008888933462012187</v>
+      </c>
+      <c r="H59">
+        <v>0.003802815773250469</v>
+      </c>
+      <c r="I59">
+        <v>-0.06350010595113366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1951349064577604</v>
+        <v>0.1500535610208592</v>
       </c>
       <c r="C60">
-        <v>-0.0899188333116262</v>
+        <v>0.1712055292243013</v>
       </c>
       <c r="D60">
-        <v>0.1910900361483684</v>
+        <v>0.0902744855767204</v>
       </c>
       <c r="E60">
-        <v>0.172305376418724</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1726691049836352</v>
+      </c>
+      <c r="F60">
+        <v>-0.224179274395038</v>
+      </c>
+      <c r="G60">
+        <v>0.2678141259045841</v>
+      </c>
+      <c r="H60">
+        <v>0.1626475309396407</v>
+      </c>
+      <c r="I60">
+        <v>-0.01902988991413547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02965302459145048</v>
+        <v>0.01050744168565071</v>
       </c>
       <c r="C61">
-        <v>-0.05149542008477221</v>
+        <v>0.06986138828601039</v>
       </c>
       <c r="D61">
-        <v>0.1002326246578816</v>
+        <v>0.07736216635733681</v>
       </c>
       <c r="E61">
-        <v>0.008974782230539267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04119831539705512</v>
+      </c>
+      <c r="F61">
+        <v>-0.01406043392060508</v>
+      </c>
+      <c r="G61">
+        <v>0.008180103175565443</v>
+      </c>
+      <c r="H61">
+        <v>-0.09411556837782979</v>
+      </c>
+      <c r="I61">
+        <v>0.0264937930018225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.00970803560617578</v>
+        <v>0.006578194921284203</v>
       </c>
       <c r="C63">
-        <v>-0.02512993111563827</v>
+        <v>0.03321137568697122</v>
       </c>
       <c r="D63">
-        <v>0.09278289938151074</v>
+        <v>0.06360003555579237</v>
       </c>
       <c r="E63">
-        <v>-0.01350958681781213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05800747100327625</v>
+      </c>
+      <c r="F63">
+        <v>0.02790023236994078</v>
+      </c>
+      <c r="G63">
+        <v>-0.0226365758161762</v>
+      </c>
+      <c r="H63">
+        <v>-0.06799887077989752</v>
+      </c>
+      <c r="I63">
+        <v>0.003447738974767463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06220228052914805</v>
+        <v>0.01920906088824362</v>
       </c>
       <c r="C64">
-        <v>-0.07807069896693469</v>
+        <v>0.104787288741305</v>
       </c>
       <c r="D64">
-        <v>0.0374397391791152</v>
+        <v>0.02473889836231839</v>
       </c>
       <c r="E64">
-        <v>-0.01481574621288523</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02901168247632786</v>
+      </c>
+      <c r="F64">
+        <v>0.0187604909488723</v>
+      </c>
+      <c r="G64">
+        <v>0.03512462084908625</v>
+      </c>
+      <c r="H64">
+        <v>-0.1138218336911215</v>
+      </c>
+      <c r="I64">
+        <v>0.0693584673749183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02646682552989338</v>
+        <v>0.02000000764427967</v>
       </c>
       <c r="C65">
-        <v>-0.01562779982506267</v>
+        <v>0.04064430951059998</v>
       </c>
       <c r="D65">
-        <v>0.1183270166625101</v>
+        <v>0.1174567105715127</v>
       </c>
       <c r="E65">
-        <v>-0.00283781774358308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04622242268796902</v>
+      </c>
+      <c r="F65">
+        <v>-0.005907424186951638</v>
+      </c>
+      <c r="G65">
+        <v>0.02290059146598648</v>
+      </c>
+      <c r="H65">
+        <v>-0.04064619025132934</v>
+      </c>
+      <c r="I65">
+        <v>0.01991405837727358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02305658314682532</v>
+        <v>0.000796827613027252</v>
       </c>
       <c r="C66">
-        <v>-0.063217501320693</v>
+        <v>0.08920623272620298</v>
       </c>
       <c r="D66">
-        <v>0.1211709470811373</v>
+        <v>0.1249104592218932</v>
       </c>
       <c r="E66">
-        <v>0.02207155193059921</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04627136425964126</v>
+      </c>
+      <c r="F66">
+        <v>-0.009036816001042756</v>
+      </c>
+      <c r="G66">
+        <v>-0.01943733784006652</v>
+      </c>
+      <c r="H66">
+        <v>-0.06216591169549419</v>
+      </c>
+      <c r="I66">
+        <v>0.07334087377221213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02611032277824098</v>
+        <v>0.02284492597368619</v>
       </c>
       <c r="C67">
-        <v>-0.01782158219411832</v>
+        <v>0.02798969080135081</v>
       </c>
       <c r="D67">
-        <v>0.03956162219333117</v>
+        <v>0.03326184514895091</v>
       </c>
       <c r="E67">
-        <v>0.01612238121509234</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.009044672070290333</v>
+      </c>
+      <c r="F67">
+        <v>-0.02438177904314335</v>
+      </c>
+      <c r="G67">
+        <v>-0.02424061321318332</v>
+      </c>
+      <c r="H67">
+        <v>-0.06243661909257746</v>
+      </c>
+      <c r="I67">
+        <v>-0.02201346640489388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1949442048833134</v>
+        <v>0.27241745100794</v>
       </c>
       <c r="C68">
-        <v>0.1706256706788203</v>
+        <v>-0.06542675497214942</v>
       </c>
       <c r="D68">
-        <v>0.03377421529562406</v>
+        <v>0.0389595500349685</v>
       </c>
       <c r="E68">
-        <v>-0.01066353310399132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.0009582747533528245</v>
+      </c>
+      <c r="F68">
+        <v>0.02257836673317808</v>
+      </c>
+      <c r="G68">
+        <v>-0.04806644701321151</v>
+      </c>
+      <c r="H68">
+        <v>0.06073645774912557</v>
+      </c>
+      <c r="I68">
+        <v>-0.09535403259197982</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06549178473065997</v>
+        <v>0.01755843882093071</v>
       </c>
       <c r="C69">
-        <v>-0.1125174071300543</v>
+        <v>0.118924053429592</v>
       </c>
       <c r="D69">
-        <v>0.08316936974377538</v>
+        <v>0.03520315458313893</v>
       </c>
       <c r="E69">
-        <v>-0.01453842251459271</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.007636892055114771</v>
+      </c>
+      <c r="F69">
+        <v>-0.009475658343442569</v>
+      </c>
+      <c r="G69">
+        <v>0.01701127365792376</v>
+      </c>
+      <c r="H69">
+        <v>-0.04966022646706405</v>
+      </c>
+      <c r="I69">
+        <v>-0.08207288406122837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1999407142972535</v>
+        <v>0.2741954736720414</v>
       </c>
       <c r="C71">
-        <v>0.1922658567372196</v>
+        <v>-0.08234045281914837</v>
       </c>
       <c r="D71">
-        <v>0.02292963225505822</v>
+        <v>0.01948096932687483</v>
       </c>
       <c r="E71">
-        <v>-0.01490066412783263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.001451417611917692</v>
+      </c>
+      <c r="F71">
+        <v>0.02123666395950941</v>
+      </c>
+      <c r="G71">
+        <v>-0.03951243109719044</v>
+      </c>
+      <c r="H71">
+        <v>-0.01180832259822165</v>
+      </c>
+      <c r="I71">
+        <v>-0.148531352027342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1105803063131262</v>
+        <v>0.05572792491449136</v>
       </c>
       <c r="C72">
-        <v>-0.06584077625458688</v>
+        <v>0.1227072978224207</v>
       </c>
       <c r="D72">
-        <v>0.1029952115417806</v>
+        <v>0.05949841664767574</v>
       </c>
       <c r="E72">
-        <v>0.04995466512507788</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07841694958835627</v>
+      </c>
+      <c r="F72">
+        <v>-0.03064760869335596</v>
+      </c>
+      <c r="G72">
+        <v>0.02607376793823146</v>
+      </c>
+      <c r="H72">
+        <v>-0.04895903803259761</v>
+      </c>
+      <c r="I72">
+        <v>0.07594781797897394</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1794704483862609</v>
+        <v>0.1353116998362897</v>
       </c>
       <c r="C73">
-        <v>-0.05463541516995689</v>
+        <v>0.1427957323723535</v>
       </c>
       <c r="D73">
-        <v>0.2650591590537834</v>
+        <v>0.09369290356991015</v>
       </c>
       <c r="E73">
-        <v>0.2647654528343639</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3016565966171508</v>
+      </c>
+      <c r="F73">
+        <v>-0.3295365604339258</v>
+      </c>
+      <c r="G73">
+        <v>0.4415879479785738</v>
+      </c>
+      <c r="H73">
+        <v>0.06449981169214662</v>
+      </c>
+      <c r="I73">
+        <v>0.04113297992348174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1155988620779679</v>
+        <v>0.05081811297833023</v>
       </c>
       <c r="C74">
-        <v>-0.1099323322727391</v>
+        <v>0.1492723569880997</v>
       </c>
       <c r="D74">
-        <v>-0.0185863249795807</v>
+        <v>-0.03719872812620374</v>
       </c>
       <c r="E74">
-        <v>-0.0421961195670125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01048512825849863</v>
+      </c>
+      <c r="F74">
+        <v>0.03648513326522683</v>
+      </c>
+      <c r="G74">
+        <v>0.003721322107284708</v>
+      </c>
+      <c r="H74">
+        <v>0.01636096539655956</v>
+      </c>
+      <c r="I74">
+        <v>-0.1006063636774608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.245818123621425</v>
+        <v>0.113372396155774</v>
       </c>
       <c r="C75">
-        <v>-0.1858441094771429</v>
+        <v>0.2722023439640336</v>
       </c>
       <c r="D75">
-        <v>-0.1084706909570042</v>
+        <v>-0.1252784733721995</v>
       </c>
       <c r="E75">
-        <v>0.01924679857452321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09038441562336046</v>
+      </c>
+      <c r="F75">
+        <v>-0.02270750139859593</v>
+      </c>
+      <c r="G75">
+        <v>-0.105610725685105</v>
+      </c>
+      <c r="H75">
+        <v>0.01136034809081686</v>
+      </c>
+      <c r="I75">
+        <v>-0.07812257084641354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1478422123942569</v>
+        <v>0.06421478864303107</v>
       </c>
       <c r="C76">
-        <v>-0.1313621271022434</v>
+        <v>0.1848088463448338</v>
       </c>
       <c r="D76">
-        <v>0.01804920072647291</v>
+        <v>-0.03039980363522727</v>
       </c>
       <c r="E76">
-        <v>-0.01022417703744784</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02104373343687741</v>
+      </c>
+      <c r="F76">
+        <v>0.006836651972862811</v>
+      </c>
+      <c r="G76">
+        <v>-0.04700790443115305</v>
+      </c>
+      <c r="H76">
+        <v>-0.02246670054518748</v>
+      </c>
+      <c r="I76">
+        <v>-0.09384742636260479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01717683330521946</v>
+        <v>0.001247685797774214</v>
       </c>
       <c r="C77">
-        <v>-0.07313764328099875</v>
+        <v>0.09855300311781122</v>
       </c>
       <c r="D77">
-        <v>0.04386038186205546</v>
+        <v>0.3454058580274456</v>
       </c>
       <c r="E77">
-        <v>-0.2097065025660519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8267592578723409</v>
+      </c>
+      <c r="F77">
+        <v>-0.2357194894718134</v>
+      </c>
+      <c r="G77">
+        <v>0.2389299266223415</v>
+      </c>
+      <c r="H77">
+        <v>0.1017427059272533</v>
+      </c>
+      <c r="I77">
+        <v>-0.03816526815357601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02989130013979488</v>
+        <v>0.01284133146732346</v>
       </c>
       <c r="C78">
-        <v>-0.06435247498907128</v>
+        <v>0.08568610459977674</v>
       </c>
       <c r="D78">
-        <v>0.1509101225727902</v>
+        <v>0.1261394144402578</v>
       </c>
       <c r="E78">
-        <v>-0.04449238200953248</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07168615983128927</v>
+      </c>
+      <c r="F78">
+        <v>0.04969028826374124</v>
+      </c>
+      <c r="G78">
+        <v>-0.03513555134853417</v>
+      </c>
+      <c r="H78">
+        <v>-0.01533784042384852</v>
+      </c>
+      <c r="I78">
+        <v>-0.09851055911279037</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1020409471844669</v>
+        <v>0.0330018526478757</v>
       </c>
       <c r="C79">
-        <v>-0.1646483330011097</v>
+        <v>0.1880442720211517</v>
       </c>
       <c r="D79">
-        <v>-0.09202512478227762</v>
+        <v>-0.06823485195435755</v>
       </c>
       <c r="E79">
-        <v>-0.8043349159206109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05863607593141618</v>
+      </c>
+      <c r="F79">
+        <v>0.7697109493598888</v>
+      </c>
+      <c r="G79">
+        <v>0.4866632027327631</v>
+      </c>
+      <c r="H79">
+        <v>0.1777550551877259</v>
+      </c>
+      <c r="I79">
+        <v>0.1306447823347782</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.008137758120026881</v>
+        <v>0.004718585019421332</v>
       </c>
       <c r="C80">
-        <v>-0.04538613259865649</v>
+        <v>0.04474819053572011</v>
       </c>
       <c r="D80">
-        <v>0.04900746086419072</v>
+        <v>0.04117216125542447</v>
       </c>
       <c r="E80">
-        <v>0.006485702665677714</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04593441690197872</v>
+      </c>
+      <c r="F80">
+        <v>0.005580159313133915</v>
+      </c>
+      <c r="G80">
+        <v>-0.02293275742749491</v>
+      </c>
+      <c r="H80">
+        <v>-0.02044285750320581</v>
+      </c>
+      <c r="I80">
+        <v>-0.07124545896612057</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1256282188382166</v>
+        <v>0.04425360407873174</v>
       </c>
       <c r="C81">
-        <v>-0.1263404823898679</v>
+        <v>0.1667858215582707</v>
       </c>
       <c r="D81">
-        <v>-0.07369288930886039</v>
+        <v>-0.07723625694342531</v>
       </c>
       <c r="E81">
-        <v>-0.06665663147373999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05688916783618152</v>
+      </c>
+      <c r="F81">
+        <v>0.06413466722060385</v>
+      </c>
+      <c r="G81">
+        <v>-0.06592632393411479</v>
+      </c>
+      <c r="H81">
+        <v>-0.0547274957270896</v>
+      </c>
+      <c r="I81">
+        <v>-0.1204411742600454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2682644699875638</v>
+        <v>0.09578016307890846</v>
       </c>
       <c r="C82">
-        <v>-0.281706138969582</v>
+        <v>0.3317764205817751</v>
       </c>
       <c r="D82">
-        <v>-0.2040771455013324</v>
+        <v>-0.2216860619102877</v>
       </c>
       <c r="E82">
-        <v>0.1315301447679502</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06356649407686797</v>
+      </c>
+      <c r="F82">
+        <v>-0.1049155841051427</v>
+      </c>
+      <c r="G82">
+        <v>-0.1175512731906748</v>
+      </c>
+      <c r="H82">
+        <v>-0.08349703564990203</v>
+      </c>
+      <c r="I82">
+        <v>-0.05418093080634308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.003973363841159503</v>
+        <v>-0.01227551104995154</v>
       </c>
       <c r="C83">
-        <v>-0.05204137158275907</v>
+        <v>0.03068373963735508</v>
       </c>
       <c r="D83">
-        <v>0.01256784833713524</v>
+        <v>0.03934753015899188</v>
       </c>
       <c r="E83">
-        <v>-0.05694346407060383</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.06554570798655006</v>
+      </c>
+      <c r="F83">
+        <v>0.06188940681194326</v>
+      </c>
+      <c r="G83">
+        <v>-0.07847754891164649</v>
+      </c>
+      <c r="H83">
+        <v>-0.02407149422719219</v>
+      </c>
+      <c r="I83">
+        <v>-0.4110667998112832</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0007980684239636122</v>
+        <v>-0.003535543501340039</v>
       </c>
       <c r="C84">
-        <v>0.001825734893853866</v>
+        <v>0.01715439663284438</v>
       </c>
       <c r="D84">
-        <v>0.004317118946677152</v>
+        <v>0.04432943235566727</v>
       </c>
       <c r="E84">
-        <v>-0.0006563639947902262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.001245406110919465</v>
+      </c>
+      <c r="F84">
+        <v>0.03021624094130864</v>
+      </c>
+      <c r="G84">
+        <v>-0.05477814546652754</v>
+      </c>
+      <c r="H84">
+        <v>-0.003073554996383462</v>
+      </c>
+      <c r="I84">
+        <v>0.0526614832623063</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1493725646075846</v>
+        <v>0.05915541254009016</v>
       </c>
       <c r="C85">
-        <v>-0.1310048830498749</v>
+        <v>0.1854350535997768</v>
       </c>
       <c r="D85">
-        <v>-0.04076510171418283</v>
+        <v>-0.08776128596432736</v>
       </c>
       <c r="E85">
-        <v>-0.02924902169966924</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0003670452786271959</v>
+      </c>
+      <c r="F85">
+        <v>0.07433649423358232</v>
+      </c>
+      <c r="G85">
+        <v>-0.02180803208783456</v>
+      </c>
+      <c r="H85">
+        <v>0.01383960004692852</v>
+      </c>
+      <c r="I85">
+        <v>-0.07530810434348298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01371243629877623</v>
+        <v>0.00958314382562294</v>
       </c>
       <c r="C86">
-        <v>-0.01168477891535985</v>
+        <v>0.03019738363145499</v>
       </c>
       <c r="D86">
-        <v>0.07615928862935319</v>
+        <v>0.1040217938110022</v>
       </c>
       <c r="E86">
-        <v>-0.05006606782297624</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01905324694414768</v>
+      </c>
+      <c r="F86">
+        <v>0.002376886847308884</v>
+      </c>
+      <c r="G86">
+        <v>0.005930423904863345</v>
+      </c>
+      <c r="H86">
+        <v>-0.02762623470837627</v>
+      </c>
+      <c r="I86">
+        <v>-0.0886410599682366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01841239456433527</v>
+        <v>0.008573118590525997</v>
       </c>
       <c r="C87">
-        <v>-0.02574718348112742</v>
+        <v>0.05373680269603759</v>
       </c>
       <c r="D87">
-        <v>0.1327909568670459</v>
+        <v>0.14377466240151</v>
       </c>
       <c r="E87">
-        <v>-0.04924769591690308</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01806238281161358</v>
+      </c>
+      <c r="F87">
+        <v>0.04639880780918671</v>
+      </c>
+      <c r="G87">
+        <v>-0.0613652447672022</v>
+      </c>
+      <c r="H87">
+        <v>-0.01573052977116805</v>
+      </c>
+      <c r="I87">
+        <v>0.02063749298371082</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05937307168203189</v>
+        <v>0.0321416863221971</v>
       </c>
       <c r="C88">
-        <v>-0.04404721145855319</v>
+        <v>0.06859487429958515</v>
       </c>
       <c r="D88">
-        <v>0.0278710893540183</v>
+        <v>0.005812058547074394</v>
       </c>
       <c r="E88">
-        <v>-0.029923344115162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02354191540003027</v>
+      </c>
+      <c r="F88">
+        <v>0.01682495854622249</v>
+      </c>
+      <c r="G88">
+        <v>0.001646988861522829</v>
+      </c>
+      <c r="H88">
+        <v>-0.02684560485549011</v>
+      </c>
+      <c r="I88">
+        <v>-0.02594149520251668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2998122500310968</v>
+        <v>0.4090619460563372</v>
       </c>
       <c r="C89">
-        <v>0.3493539722495801</v>
+        <v>-0.1581247295745832</v>
       </c>
       <c r="D89">
-        <v>0.01315851255371251</v>
+        <v>0.0329218153455933</v>
       </c>
       <c r="E89">
-        <v>-0.09486199005051037</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.04670978363092385</v>
+      </c>
+      <c r="F89">
+        <v>0.07045926289908526</v>
+      </c>
+      <c r="G89">
+        <v>-0.03999483892969923</v>
+      </c>
+      <c r="H89">
+        <v>-0.1052545735881396</v>
+      </c>
+      <c r="I89">
+        <v>0.2777589700192873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2392913095695144</v>
+        <v>0.3184337576134618</v>
       </c>
       <c r="C90">
-        <v>0.2563895182972906</v>
+        <v>-0.1083853079857516</v>
       </c>
       <c r="D90">
-        <v>0.03553748439983426</v>
+        <v>0.03367984719976855</v>
       </c>
       <c r="E90">
-        <v>0.005808794797818944</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007153837829284572</v>
+      </c>
+      <c r="F90">
+        <v>-0.006011014010449952</v>
+      </c>
+      <c r="G90">
+        <v>-0.06574583244285435</v>
+      </c>
+      <c r="H90">
+        <v>0.0293460730253203</v>
+      </c>
+      <c r="I90">
+        <v>-0.08079860426337489</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1654326892716302</v>
+        <v>0.06865199626052372</v>
       </c>
       <c r="C91">
-        <v>-0.1784618568684841</v>
+        <v>0.2137063465623893</v>
       </c>
       <c r="D91">
-        <v>-0.09568073628148717</v>
+        <v>-0.1021618720954726</v>
       </c>
       <c r="E91">
-        <v>-0.09539305944150975</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06401341208134818</v>
+      </c>
+      <c r="F91">
+        <v>0.0711525707549506</v>
+      </c>
+      <c r="G91">
+        <v>-0.005761234951358042</v>
+      </c>
+      <c r="H91">
+        <v>0.001390871961862598</v>
+      </c>
+      <c r="I91">
+        <v>-0.1096142993067318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2247687457400049</v>
+        <v>0.3397650809380081</v>
       </c>
       <c r="C92">
-        <v>0.273197826217027</v>
+        <v>-0.1412509944710414</v>
       </c>
       <c r="D92">
-        <v>-0.05408628011766452</v>
+        <v>0.0007172221410095079</v>
       </c>
       <c r="E92">
-        <v>-0.05133203714454857</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06778870374318746</v>
+      </c>
+      <c r="F92">
+        <v>0.03134172994625823</v>
+      </c>
+      <c r="G92">
+        <v>-0.03139393256016586</v>
+      </c>
+      <c r="H92">
+        <v>-0.0251438460858379</v>
+      </c>
+      <c r="I92">
+        <v>0.2264859581594591</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2643753274205246</v>
+        <v>0.3358369562125234</v>
       </c>
       <c r="C93">
-        <v>0.2684679614855175</v>
+        <v>-0.1141160974419757</v>
       </c>
       <c r="D93">
-        <v>0.01413126405156115</v>
+        <v>-0.01703527392713887</v>
       </c>
       <c r="E93">
-        <v>-0.004638669388235321</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02577716619940652</v>
+      </c>
+      <c r="F93">
+        <v>0.007891913032401375</v>
+      </c>
+      <c r="G93">
+        <v>0.01827466299328655</v>
+      </c>
+      <c r="H93">
+        <v>-0.002586231639229734</v>
+      </c>
+      <c r="I93">
+        <v>-0.06782954516773457</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3123555744208431</v>
+        <v>0.135023726609815</v>
       </c>
       <c r="C94">
-        <v>-0.2539598762483451</v>
+        <v>0.3648274708940344</v>
       </c>
       <c r="D94">
-        <v>-0.3570930989180053</v>
+        <v>-0.3342320358497956</v>
       </c>
       <c r="E94">
-        <v>0.1995455803224964</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.07068332197308595</v>
+      </c>
+      <c r="F94">
+        <v>-0.09461796827606583</v>
+      </c>
+      <c r="G94">
+        <v>-0.2917817008500407</v>
+      </c>
+      <c r="H94">
+        <v>0.1156713754403147</v>
+      </c>
+      <c r="I94">
+        <v>0.3714732959229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01772485301057659</v>
+        <v>0.0181391828355487</v>
       </c>
       <c r="C95">
-        <v>-0.03500454545842819</v>
+        <v>0.0602635852187452</v>
       </c>
       <c r="D95">
-        <v>0.03552102383604323</v>
+        <v>0.111055851022124</v>
       </c>
       <c r="E95">
-        <v>-0.08379724560564474</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1549412006792104</v>
+      </c>
+      <c r="F95">
+        <v>-0.02595650474465318</v>
+      </c>
+      <c r="G95">
+        <v>0.01714302721404278</v>
+      </c>
+      <c r="H95">
+        <v>-0.422804916579733</v>
+      </c>
+      <c r="I95">
+        <v>0.4347828590570686</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0008795072222190715</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0005331625529833721</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0005674403957720504</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003295551181315015</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003890706211774481</v>
+      </c>
+      <c r="G97">
+        <v>-0.000284915433677695</v>
+      </c>
+      <c r="H97">
+        <v>-0.002987255747408665</v>
+      </c>
+      <c r="I97">
+        <v>0.002380324262514923</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1521137766804486</v>
+        <v>0.1120855109036956</v>
       </c>
       <c r="C98">
-        <v>-0.07333543410262842</v>
+        <v>0.1448101958068587</v>
       </c>
       <c r="D98">
-        <v>0.1478423205352449</v>
+        <v>0.05878949073958663</v>
       </c>
       <c r="E98">
-        <v>0.1977475092629561</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2056797382517504</v>
+      </c>
+      <c r="F98">
+        <v>-0.2414502945533565</v>
+      </c>
+      <c r="G98">
+        <v>0.3009597467159511</v>
+      </c>
+      <c r="H98">
+        <v>0.113982275510591</v>
+      </c>
+      <c r="I98">
+        <v>0.01865235412658398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0009106521681145744</v>
+        <v>-0.002342984793783156</v>
       </c>
       <c r="C101">
-        <v>-0.02022620639827332</v>
+        <v>0.02856248429537377</v>
       </c>
       <c r="D101">
-        <v>0.09685011117896292</v>
+        <v>0.0942931156551144</v>
       </c>
       <c r="E101">
-        <v>-0.01562894865516391</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05589291428483811</v>
+      </c>
+      <c r="F101">
+        <v>0.0393588880238977</v>
+      </c>
+      <c r="G101">
+        <v>-0.02774487842894192</v>
+      </c>
+      <c r="H101">
+        <v>-0.1300862227064547</v>
+      </c>
+      <c r="I101">
+        <v>-0.01116064714102592</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1150748949611295</v>
+        <v>0.03219313056353166</v>
       </c>
       <c r="C102">
-        <v>-0.150004753203262</v>
+        <v>0.1533092278592802</v>
       </c>
       <c r="D102">
-        <v>-0.06627564417107491</v>
+        <v>-0.08862846934698984</v>
       </c>
       <c r="E102">
-        <v>0.04695655693513395</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03745464798062689</v>
+      </c>
+      <c r="F102">
+        <v>-0.06005345264498152</v>
+      </c>
+      <c r="G102">
+        <v>-0.009159745643301074</v>
+      </c>
+      <c r="H102">
+        <v>-0.05793249927668655</v>
+      </c>
+      <c r="I102">
+        <v>-0.02691135693919419</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
